--- a/student_notes.xlsx
+++ b/student_notes.xlsx
@@ -1,248 +1,184 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11680"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="27660" windowHeight="11680" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
-  <si>
-    <t>要点</t>
-  </si>
-  <si>
-    <t>笔记</t>
-  </si>
-  <si>
-    <t>总结</t>
-  </si>
-  <si>
-    <t>学科</t>
-  </si>
-  <si>
-    <t>笔记类型</t>
-  </si>
-  <si>
-    <t>要点栏：
-1. 古时候的书法在中国文化中占有重要地位，是科举考试的一部分，被学者、考生和皇帝所重视。
-2. 在数字时代，人们对儿童学习书法的兴趣减弱感到关切。
-3. 书法具有持久价值和益处，能培养耐心、专注力和细节关注能力。
-4. 书法为自我表达提供独特形式，有助于在数字世界中慢下来、反思和表达情感。
-5. 尽管有电脑和智能手机的影响，但书法仍具有巨大价值。</t>
-  </si>
-  <si>
-    <t>笔记栏：
-- 书法在古中国文化的地位：作为科举考试的一部分，被学者、考生和皇帝所重视。
-- 数字时代对书法的影响：人们担忧儿童学习书法的兴趣减弱，认为书法变得过时且不必要。
-- 书法的益处：培养耐心、专注力和细节关注能力，促进自我表达。
-- 书法与数字世界的对比：在数字世界中，书法提供慢下来、反思和表达情感的机会。
-- 结论：尽管有电脑和智能手机的影响，但书法仍具有巨大价值。</t>
-  </si>
-  <si>
-    <t>总结栏：
-书法作为古中国文化的精髓，在现代社会依然具有不可替代的价值。它不仅有助于培养个人的耐心、专注力和细节关注能力，还能为自我表达提供独特的艺术形式。在数字时代，尽管有电脑和智能手机的冲击，但书法仍然能够以其独特的魅力吸引人们，特别是儿童。通过学习和实践书法，个体可以在快节奏的数字世界中找到平衡，发展自我反思和表达能力。因此，我认为书法在数字时代仍然具有巨大的价值，值得人们去珍惜和传承。</t>
-  </si>
-  <si>
-    <t>语文</t>
-  </si>
-  <si>
-    <t>复习笔记</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="21">
     <font>
-      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <b val="1"/>
       <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <b val="1"/>
       <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -542,154 +478,154 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -743,11 +679,74 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1034,69 +1033,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>要点</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>笔记</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>总结</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>学科</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>笔记类型</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>要点栏：
+1. 古时候的书法在中国文化中占有重要地位，是科举考试的一部分，被学者、考生和皇帝所重视。
+2. 在数字时代，人们对儿童学习书法的兴趣减弱感到关切。
+3. 书法具有持久价值和益处，能培养耐心、专注力和细节关注能力。
+4. 书法为自我表达提供独特形式，有助于在数字世界中慢下来、反思和表达情感。
+5. 尽管有电脑和智能手机的影响，但书法仍具有巨大价值。</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>笔记栏：
+- 书法在古中国文化的地位：作为科举考试的一部分，被学者、考生和皇帝所重视。
+- 数字时代对书法的影响：人们担忧儿童学习书法的兴趣减弱，认为书法变得过时且不必要。
+- 书法的益处：培养耐心、专注力和细节关注能力，促进自我表达。
+- 书法与数字世界的对比：在数字世界中，书法提供慢下来、反思和表达情感的机会。
+- 结论：尽管有电脑和智能手机的影响，但书法仍具有巨大价值。</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>总结栏：
+书法作为古中国文化的精髓，在现代社会依然具有不可替代的价值。它不仅有助于培养个人的耐心、专注力和细节关注能力，还能为自我表达提供独特的艺术形式。在数字时代，尽管有电脑和智能手机的冲击，但书法仍然能够以其独特的魅力吸引人们，特别是儿童。通过学习和实践书法，个体可以在快节奏的数字世界中找到平衡，发展自我反思和表达能力。因此，我认为书法在数字时代仍然具有巨大的价值，值得人们去珍惜和传承。</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>语文</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>复习笔记</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>要点栏：
+1. 古时候的书法在中国文化中占有重要地位，是科举考试的一部分，被学者、考生和皇帝所重视。
+2. 在数字时代，人们对儿童学习书法的兴趣减弱感到关切。
+3. 书法具有持久价值和益处，能培养耐心、专注力和细节关注能力。
+4. 书法为自我表达提供独特形式，有助于在数字世界中慢下来、反思和表达情感。
+5. 尽管有电脑和智能手机的影响，但书法仍具有巨大价值。</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>笔记栏：
+- 书法在古中国文化的地位：作为科举考试的一部分，被学者、考生和皇帝所重视。
+- 数字时代对书法的影响：人们担忧儿童学习书法的兴趣减弱，认为书法变得过时且不必要。
+- 书法的益处：培养耐心、专注力和细节关注能力，促进自我表达。
+- 书法与数字世界的对比：在数字世界中，书法提供慢下来、反思和表达情感的机会。
+- 结论：尽管有电脑和智能手机的影响，但书法仍具有巨大价值。</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>总结栏：
+书法作为古中国文化的精髓，在现代社会依然具有不可替代的价值。它不仅有助于培养个人的耐心、专注力和细节关注能力，还能为自我表达提供独特的艺术形式。在数字时代，尽管有电脑和智能手机的冲击，但书法仍然能够以其独特的魅力吸引人们，特别是儿童。通过学习和实践书法，个体可以在快节奏的数字世界中找到平衡，发展自我反思和表达能力。因此，我认为书法在数字时代仍然具有巨大的价值，值得人们去珍惜和传承。</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>语文</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>复习笔记</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>要点栏：1. 汉政权在地方郡县之上设立州，以加强对地方的控制。
+2. 州的数量和名称，包括幽州、并州、冀州等。
+3. 州的确立对地方的影响，包括私力部争和割据政权的出现。
+4. 长期的战乱对黄河流域的影响，导致千里无人烟。
+5. 曹操的诗歌《铠甲生几诗》描述战乱给老百姓带来的境遇。</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>笔记栏：- 汉政权设立州，加强对地方的控制。
+- 州的名称包括幽州、并州、冀州等。
+- 州的确立导致私力部争和割据政权的出现。
+- 长期的战乱使黄河流域变得贫穷，千里无人烟。
+- 曹操的诗歌《铠甲生几诗》描述战乱给老百姓带来的境遇。</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>总结栏：通过了解汉政权设立州的过程及其影响，以及对地方割据政权和战乱的理解，我们可以更深入地认识到历史发展的复杂性和人性的复杂性。同时，曹操的诗歌也让我们对古代诗人的情感和思想有更深入的了解。</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>语文</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>复习笔记</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/student_notes.xlsx
+++ b/student_notes.xlsx
@@ -1,87 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pyprojects\public\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A755D1-9A7B-46B5-86C4-84666E2A98D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="936" windowWidth="17280" windowHeight="11304" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="660" yWindow="936" windowWidth="17280" windowHeight="11304" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>要点</t>
-  </si>
-  <si>
-    <t>笔记</t>
-  </si>
-  <si>
-    <t>总结</t>
-  </si>
-  <si>
-    <t>学科</t>
-  </si>
-  <si>
-    <t>笔记类型</t>
-  </si>
-  <si>
-    <t>其他</t>
-  </si>
-  <si>
-    <t>课堂笔记</t>
-  </si>
-  <si>
-    <t>要点栏：1. 决议吸收18位同志为中共预备党员。
-2. 决议通过21位同志转为正式党员。
-3. 强调预备党员需认真履行义务，克服缺点，提高思想觉悟。</t>
-  </si>
-  <si>
-    <t>笔记栏：
-1. 2012年6月5日，支付大会讨论并通过了吸收张日奇、霍一聪等18位同志为中共预备党员的决议。
-2. 2012年6月10日，通过警言语等21位同志转为正式党员的决议。
-3. 预备党员需认真履行义务，克服缺点，提高思想觉悟。</t>
-  </si>
-  <si>
-    <t>总结栏：通过支付大会的讨论和决议，成功吸收了18位预备党员和21位正式党员。预备党员需继续提高思想觉悟，履行党员义务，争取成为一名合格的共产党员。</t>
-  </si>
-  <si>
-    <t>temp\老师讲课_爱给网_aigei_com.mp3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,21 +52,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -402,54 +413,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>要点</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>笔记</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>总结</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>学科</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>笔记类型</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>要点栏：1. 决议吸收18位同志为中共预备党员。
+2. 决议通过21位同志转为正式党员。
+3. 强调预备党员需认真履行义务，克服缺点，提高思想觉悟。</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>笔记栏：
+1. 2012年6月5日，支付大会讨论并通过了吸收张日奇、霍一聪等18位同志为中共预备党员的决议。
+2. 2012年6月10日，通过警言语等21位同志转为正式党员的决议。
+3. 预备党员需认真履行义务，克服缺点，提高思想觉悟。</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>总结栏：通过支付大会的讨论和决议，成功吸收了18位预备党员和21位正式党员。预备党员需继续提高思想觉悟，履行党员义务，争取成为一名合格的共产党员。</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>课堂笔记</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>temp\老师讲课_爱给网_aigei_com.mp3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>要点栏：1. 书法在古代中华文化中占据重要地位，是科举考试制度不可分割的一部分，深受学者、考生和皇帝的重视。
+2. 在现代科技高度发达的今天，书法的实践在孩子们中间日益减少，有些观点甚至认为书法已经过时且无用。
+3. 我不同意这种观点，书法不仅对个人有益，还能陶冶性情，提升学术表现和创造力，提供自我表达的方式，帮助我们在快节奏的数字世界中慢下来，反思和表达我们的想法和情感。</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>笔记栏：
+- 书法：古代中华文化的重要组成部分，被用于科举考试，深受学者、考生和皇帝的尊重。
+- 书法在现代：随着计算机和智能手机的普及，书法的实践在孩子们中间日益减少，有人甚至认为书法已经过时且无用。
+- 书法的价值和益处：书法不仅能提升个人的耐心、专注力和细节观察力，还能陶冶性情，提供自我表达的方式，帮助我们在快节奏的数字世界中慢下来，反思和表达我们的想法和情感。
+- 结论：虽然科技的进步改变了我们的书写方式，但书法仍具有巨大的价值。因此，我认为书法实践在数字时代仍然具有相关性和必要性。</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>总结栏：书法不仅是古代中华文化的重要组成部分，而且在现代科技高度发达的今天仍然具有巨大的价值。它不仅能帮助个人提升耐心、专注力和细节观察力，还能陶冶性情，提供自我表达的方式。在数字时代，书法实践仍然具有相关性和必要性。因此，我们应该重视书法的教育和实践，让它在我们的生活中继续发挥积极作用。</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>语文</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>复习笔记</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>temp\金沙江小区 6.mp3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>要点栏：
+1. 书法在古代中华文化中占据重要地位，是科举考试系统的一部分，被学者、考生和皇帝所重视。
+2. 在现代科技飞速发展的时代，书法的实践在年轻人中逐渐减少，但书法仍具有不可替代的价值和好处。
+3. 学习书法有助于培养耐心、专注力和细节关注，这些技能在生活和学术领域都有积极影响。
+4. 书法提供了一种独特的自我表达方式，让我们在快节奏的数字世界中得以喘息和思考。</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>笔记栏：
+- 书法：古代中华文化的重要组成部分，被用于科举考试，备受推崇。
+- 现代担忧：随着科技的发展，书法的实践在年轻人中减少，引起关注。
+- 书法价值：书法有助于培养耐心、专注力和细节关注，提供自我表达的机会，具有不可替代的价值。</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>总结栏：
+书法在古代中华文化中占据了重要地位，不仅被用于科举考试，还备受学者、考生和皇帝的推崇。尽管在现代科技飞速发展的时代，书法的实践在年轻人中逐渐减少，但书法仍具有不可替代的价值和好处。学习书法有助于培养耐心、专注力和细节关注，这些技能在生活和学术领域都有积极影响。此外，书法提供了一种独特的自我表达方式，让我们在快节奏的数字世界中得以喘息和思考。因此，我认为书法在数字时代仍然具有重要地位和必要性。</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>语文</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>复习笔记</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>assets/video\金沙江小区 6.mp3</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/student_notes.xlsx
+++ b/student_notes.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
@@ -568,6 +568,94 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>要点栏：1. 张日奇、霍一聪等18人向党组织提出入党申请。
+2. 这18人在党组织的培养下，思想觉悟提高，能够坚决拥护和认真贯彻的党路线方针政策。
+3. 张瑞希等18位同志能够定期向党组织汇报思想和工作情况，学习上能够刻苦钻研专业知识，工作刻苦努力，一丝不苟。
+4. 在担任各种班级和参加各项学院活动期间，能够切实起到模范带领作用，并取得了领导和同学的一致肯定。
+5. 根据组织考察和本人的表现，认为该18人已经具备党员条件，于2012年6月5日召开支付大会讨论其入党问题。
+6. 执生党支部一致同意吸收该18名为中共预备党员，希望他们入党以后能够认真履行党员义务，克服工作学习中的缺点和不足，争取做一名合格的共产党员。
+7. 关于通过警言语等21位同志转为正式党员的决议。经考察，警言语等21位同志在预备期间，能够认真学习党的基本知识，坚持用党员的标准严格要求自己认真履行党员义务。
+8. 注意克服入党前存在的缺点和不足，思想得到了显著的提高。经大会认真讨论，一致认为，警言语等21位同志已经达到正式党员的标准，同意其按期转正。</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>笔记栏：
+- 张日奇、霍一聪等18人向党组织提出入党申请。
+- 这18人在党组织的培养下，思想觉悟提高，能够坚决拥护和认真贯彻的党路线方针政策。
+- 张瑞希等18位同志能够定期向党组织汇报思想和工作情况，学习上能够刻苦钻研专业知识，工作刻苦努力，一丝不苟。
+- 在担任各种班级和参加各项学院活动期间，能够切实起到模范带领作用，并取得了领导和同学的一致肯定。
+- 根据组织考察和本人的表现，认为该18人已经具备党员条件，于2012年6月5日召开支付大会讨论其入党问题。
+- 执生党支部一致同意吸收该18名为中共预备党员，希望他们入党以后能够认真履行党员义务，克服工作学习中的缺点和不足，争取做一名合格的共产党员。
+- 关于通过警言语等21位同志转为正式党员的决议。经考察，警言语等21位同志在预备期间，能够认真学习党的基本知识，坚持用党员的标准严格要求自己认真履行党员义务。
+- 注意克服入党前存在的缺点和不足，思想得到了显著的提高。经大会认真讨论，一致认为，警言语等21位同志已经达到正式党员的标准，同意其按期转正。</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>总结栏：- 这堂课讨论了两个决议：一是关于吸收张日奇、霍一聪等18位同志为中共预备党员的决议；二是关于通过警言语等21位同志转为正式党员的决议。
+- 第一个决议中，张日奇、霍一聪等18人在党组织的培养下，思想觉悟提高，能够坚决拥护和认真贯彻的党路线方针政策，并且在学习、工作和生活中表现出色，被执生党支部一致同意吸收为中共预备党员。
+- 第二个决议中，警言语等21位同志在预备期间表现优秀，能够认真学习党的基本知识，坚持用党员的标准严格要求自己认真履行党员义务，注意克服入党前存在的缺点和不足，思想得到了显著的提高。经过大会认真讨论，一致认为他们已经达到正式党员的标准，同意其按期转正。</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>课堂笔记</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>assets/video\老师讲课_爱给网_aigei_com.mp3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>要点栏：1. 汉政权在地方郡县之上设立州，以加强对地方的控制，防止老百姓的判断。
+2. 设立的州包括幽州、并州、冀州、忻州、凉州等，后来还有兖州、徐州、禹州、益州、荆州、扬州、胶州、宜州等。
+3. 州设立之初，效果良好，但随着时间的推移，地方上的周末和太守们开始建立割据政权，互相争夺地盘，战乱频发，黄河流域变得非常贫穷，千里无人烟。
+4. 曹操是一位军阀兼诗人，他写过一首诗来描述这种场景。</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>笔记栏：
+- 汉政权设立州：幽州、并州、冀州、忻州、凉州等
+- 割据政权：周末和太守们开始建立割据政权，互相争夺地盘
+- 黄河流域：长期战乱使得黄河流域变得非常贫穷，千里无人烟
+- 曹操的诗：铠甲生几诗，描述老百姓的境遇，表达同情</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>总结栏：通过了解汉政权设立州的历史背景、目的以及后来的实际效果，我们可以更深入地理解古代中央政府对地方政权的管理和控制策略。同时，曹操作为一位具有文学修养的军阀，他的诗作不仅反映了当时的社会现实，也表达了他对老百姓的同情和关怀。</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>语文</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>复习笔记</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>assets/video\【生活白噪音】梦回历史课堂_爱给网_aigei_com.mp3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
